--- a/regions/10/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
+++ b/regions/10/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -124,6 +124,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -491,9 +492,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -501,7 +502,7 @@
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -520,7 +521,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -537,7 +538,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="6">
         <v>2006</v>
@@ -584,8 +585,14 @@
       <c r="P3" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -634,8 +641,14 @@
       <c r="P4" s="7">
         <v>5560.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="7">
+        <v>5450.3</v>
+      </c>
+      <c r="R4" s="7">
+        <v>7232.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -684,8 +697,14 @@
       <c r="P5" s="7">
         <v>6047.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="7">
+        <v>5713.3</v>
+      </c>
+      <c r="R5" s="7">
+        <v>7589.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
@@ -734,8 +753,14 @@
       <c r="P6" s="14">
         <v>38008</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="14">
+        <v>35203</v>
+      </c>
+      <c r="R6" s="14">
+        <v>35610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -784,8 +809,14 @@
       <c r="P7" s="14">
         <v>37706</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="14">
+        <v>34565</v>
+      </c>
+      <c r="R7" s="14">
+        <v>35097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
@@ -834,8 +865,14 @@
       <c r="P8" s="7">
         <v>2003.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="7">
+        <v>2108.1</v>
+      </c>
+      <c r="R8" s="7">
+        <v>2392.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -884,8 +921,14 @@
       <c r="P9" s="7">
         <v>3713.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="7">
+        <v>3723.8</v>
+      </c>
+      <c r="R9" s="7">
+        <v>5032.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -934,8 +977,14 @@
       <c r="P10" s="7">
         <v>921</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="7">
+        <v>887.9</v>
+      </c>
+      <c r="R10" s="7">
+        <v>1030.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>3</v>
       </c>
@@ -984,8 +1033,14 @@
       <c r="P11" s="7">
         <v>2334.6999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="7">
+        <v>1989.6</v>
+      </c>
+      <c r="R11" s="7">
+        <v>2557.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>5</v>
       </c>
@@ -1034,8 +1089,14 @@
       <c r="P12" s="7">
         <v>378.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q12" s="7">
+        <v>366.7</v>
+      </c>
+      <c r="R12" s="7">
+        <v>371.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1084,8 +1145,14 @@
       <c r="P13" s="7">
         <v>3836.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" s="7">
+        <v>3825</v>
+      </c>
+      <c r="R13" s="7">
+        <v>5180.3999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1102,7 +1169,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
